--- a/table_structure.xlsx
+++ b/table_structure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="85">
   <si>
     <t>String</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>unum_alipay_njhs</t>
-  </si>
-  <si>
-    <t>item_feature</t>
   </si>
   <si>
     <t>字段</t>
@@ -247,10 +244,6 @@
   </si>
   <si>
     <t>ds</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_store_feature</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -423,6 +416,14 @@
   </si>
   <si>
     <t>target</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_feature</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_store_feature</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -833,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:C83"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -853,353 +854,449 @@
     <col min="15" max="15" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B1">
         <v>232621</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1207,15 +1304,15 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B36">
         <v>960122</v>
@@ -1223,24 +1320,24 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1248,21 +1345,21 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1270,10 +1367,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1281,10 +1378,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1292,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1303,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1314,10 +1411,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1325,10 +1422,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1336,10 +1433,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1347,10 +1444,10 @@
         <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1358,10 +1455,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1369,10 +1466,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1380,10 +1477,10 @@
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1391,10 +1488,10 @@
         <v>14</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1402,10 +1499,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1413,10 +1510,10 @@
         <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -1424,10 +1521,10 @@
         <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -1435,10 +1532,10 @@
         <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1446,10 +1543,10 @@
         <v>19</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1457,10 +1554,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1468,10 +1565,10 @@
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -1479,10 +1576,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1490,10 +1587,10 @@
         <v>23</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1501,10 +1598,10 @@
         <v>24</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1512,10 +1609,10 @@
         <v>25</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1523,10 +1620,10 @@
         <v>26</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1534,10 +1631,10 @@
         <v>27</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -1545,10 +1642,10 @@
         <v>28</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -1556,10 +1653,10 @@
         <v>29</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1567,10 +1664,10 @@
         <v>30</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1578,15 +1675,15 @@
         <v>31</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>6000</v>
@@ -1594,62 +1691,62 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -1660,29 +1757,29 @@
         <v>0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/table_structure.xlsx
+++ b/table_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,18 +854,18 @@
     <col min="15" max="15" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B1">
-        <v>232621</v>
+        <v>230355</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -878,8 +878,11 @@
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -892,8 +895,11 @@
       <c r="E3" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -906,8 +912,11 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -920,8 +929,11 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -934,8 +946,11 @@
       <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -948,8 +963,11 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -963,7 +981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1061,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>960122</v>
+        <v>950120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">

--- a/table_structure.xlsx
+++ b/table_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="85">
   <si>
     <t>String</t>
   </si>
@@ -834,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -847,14 +847,14 @@
     <col min="3" max="3" width="84.75" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="74.25" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="8.375" customWidth="1"/>
     <col min="15" max="15" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -864,8 +864,12 @@
       <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -881,8 +885,12 @@
       <c r="F2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -898,8 +906,12 @@
       <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -915,8 +927,12 @@
       <c r="F4">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -932,8 +948,12 @@
       <c r="F5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -949,8 +969,12 @@
       <c r="F6">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -966,8 +990,12 @@
       <c r="F7">
         <v>401</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -980,8 +1008,12 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -994,8 +1026,12 @@
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1044,12 @@
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1022,8 +1062,12 @@
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1080,12 @@
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1050,8 +1098,12 @@
       <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1064,8 +1116,12 @@
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1078,8 +1134,12 @@
       <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1092,8 +1152,12 @@
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1106,8 +1170,12 @@
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1120,8 +1188,12 @@
       <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1134,8 +1206,12 @@
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1148,8 +1224,12 @@
       <c r="E20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1162,8 +1242,12 @@
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1176,8 +1260,12 @@
       <c r="E22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1190,8 +1278,12 @@
       <c r="E23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1204,8 +1296,12 @@
       <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1218,8 +1314,12 @@
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1247,7 +1347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1261,7 +1361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1303,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>

--- a/table_structure.xlsx
+++ b/table_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,27 +834,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G1:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="84.75" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="84.77734375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="8.375" customWidth="1"/>
-    <col min="15" max="15" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -864,12 +864,12 @@
       <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -885,12 +885,12 @@
       <c r="F2">
         <v>1000</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -906,12 +906,12 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -927,12 +927,12 @@
       <c r="F4">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -948,12 +948,12 @@
       <c r="F5">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -969,12 +969,12 @@
       <c r="F6">
         <v>168</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -990,12 +990,12 @@
       <c r="F7">
         <v>401</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1008,12 +1008,12 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1026,12 +1026,12 @@
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1044,12 +1044,12 @@
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1062,12 +1062,12 @@
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1080,12 +1080,12 @@
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1098,12 +1098,12 @@
       <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1116,12 +1116,12 @@
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1134,12 +1134,12 @@
       <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1152,12 +1152,12 @@
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1170,12 +1170,12 @@
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1188,12 +1188,12 @@
       <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1206,12 +1206,12 @@
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1224,12 +1224,12 @@
       <c r="E20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1242,12 +1242,12 @@
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1260,12 +1260,12 @@
       <c r="E22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1278,12 +1278,12 @@
       <c r="E23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1296,12 +1296,12 @@
       <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1314,12 +1314,12 @@
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>950120</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>1</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>14</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>15</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>18</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>19</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>21</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>22</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>24</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>25</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>27</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>28</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>29</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>32</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>77</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>68</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>69</v>
       </c>
@@ -1851,12 +1851,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>32</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>68</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>80</v>
       </c>

--- a/table_structure.xlsx
+++ b/table_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -529,6 +535,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G1:G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="C25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1179,7 @@
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="1"/>
@@ -1242,7 +1251,7 @@
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="1"/>
